--- a/assets/examples/xlsx/RS0007/Belt-Drive-Constant-Efficiency.RS0007.a205.xlsx
+++ b/assets/examples/xlsx/RS0007/Belt-Drive-Constant-Efficiency.RS0007.a205.xlsx
@@ -337,6 +337,11 @@
     <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Efficiency of drive</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>The operation state at the operating conditions</t>
       </text>
     </comment>
   </commentList>
@@ -1094,10 +1099,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="C6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C18" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C18" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"V_BELT,COGGED_BELT,SYNCHRONOUS_BELT,GEAR,CHAIN"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1246,6 +1251,7 @@
           <t>lookup_variables</t>
         </is>
       </c>
+      <c r="C2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -1258,6 +1264,11 @@
           <t>efficiency</t>
         </is>
       </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>operation_state</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -1266,6 +1277,11 @@
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1278,6 +1294,11 @@
       <c r="B5" s="5" t="n">
         <v>0.985</v>
       </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -1285,6 +1306,11 @@
       </c>
       <c r="B6" s="5" t="n">
         <v>0.985</v>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
   </sheetData>
